--- a/notebooks/VRK1/input/VRK1_individuals.xlsx
+++ b/notebooks/VRK1/input/VRK1_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/VRK1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FF62AC-F8F8-AB45-BB33-F0BEF191B0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21399F35-A915-0241-9DDA-28C3905E31DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="7300" windowWidth="30300" windowHeight="17000" xr2:uid="{E317BCA4-248A-A946-A74D-31C95554FB12}"/>
+    <workbookView xWindow="2340" yWindow="4180" windowWidth="30300" windowHeight="17000" xr2:uid="{E317BCA4-248A-A946-A74D-31C95554FB12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="123">
   <si>
     <t>title</t>
   </si>
@@ -80,9 +80,6 @@
     <t>str</t>
   </si>
   <si>
-    <t>optional str</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -390,13 +387,31 @@
   </si>
   <si>
     <t>HP:0001347</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>VRK1</t>
+  </si>
+  <si>
+    <t>HGNC:12718</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,6 +430,19 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -438,10 +466,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,17 +806,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AA3257-7759-1C4C-AC23-A412860E7EFD}">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:T10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -803,106 +833,112 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -911,995 +947,1049 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>70</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
         <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AA3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AE3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AH3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL3" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
       </c>
       <c r="J5" t="s">
         <v>74</v>
       </c>
       <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
         <v>67</v>
       </c>
-      <c r="L5" t="s">
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
         <v>29</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" t="s">
+        <v>53</v>
+      </c>
+      <c r="U7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>17</v>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" t="s">
+        <v>53</v>
+      </c>
+      <c r="T9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" t="s">
-        <v>54</v>
-      </c>
-      <c r="W7" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>54</v>
-      </c>
-      <c r="R8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" t="s">
-        <v>54</v>
-      </c>
-      <c r="W8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
         <v>113</v>
       </c>
-      <c r="I9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
         <v>111</v>
       </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" t="s">
-        <v>54</v>
-      </c>
-      <c r="U9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" t="s">
-        <v>17</v>
-      </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="Q10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W10" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="X10" t="s">
+        <v>53</v>
       </c>
       <c r="Y10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD10" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="AF10" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>16</v>
       </c>
       <c r="AH10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="AJ10" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL10" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
